--- a/Documentatie/Sprintplanning & Resultaten.xlsx
+++ b/Documentatie/Sprintplanning & Resultaten.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>Sprint-dagen verbruikt;</t>
   </si>
@@ -133,9 +133,6 @@
   <si>
     <t>geen enkele cursus of cursus-instantie ingevoeren als het tekstbestand niet in het juiste formaat staat
 zodat er geen data in het systeem komt te staan dat mogelijk niet juist is</t>
-  </si>
-  <si>
-    <t>In verband met het regelen van de documentatie, het installeren van de solution op een ander apparaat en dit te debuggen, is dit niet af.</t>
   </si>
   <si>
     <t>Foutmelding bekijken</t>
@@ -347,7 +344,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,13 +353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -377,13 +380,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -392,31 +395,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,14 +429,71 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -442,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -451,79 +511,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,9 +543,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff598a38"/>
-      <rgbColor rgb="ffffdf7f"/>
+      <rgbColor rgb="ff598a38"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -744,17 +745,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -782,10 +783,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1033,12 +1034,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1325,7 +1326,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1353,10 +1354,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1613,9 +1614,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.0703" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.4531" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.2188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.1719" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.85156" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.6719" style="1" customWidth="1"/>
@@ -1893,7 +1894,9 @@
       <c r="A9" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" t="s" s="14">
+        <v>12</v>
+      </c>
       <c r="C9" t="s" s="13">
         <v>29</v>
       </c>
@@ -1912,227 +1915,227 @@
       <c r="H9" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="I9" t="s" s="16">
+      <c r="I9" t="s" s="14">
         <v>39</v>
       </c>
       <c r="J9" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" ht="52.55" customHeight="1">
-      <c r="A10" t="s" s="18">
+      <c r="A10" t="s" s="17">
         <v>37</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" t="s" s="18">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s" s="17">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s" s="17">
         <v>40</v>
       </c>
-      <c r="C10" t="s" s="18">
-        <v>29</v>
-      </c>
-      <c r="D10" s="20">
-        <v>5</v>
-      </c>
-      <c r="E10" s="20">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s" s="18">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s" s="18">
+      <c r="I10" t="s" s="18">
         <v>41</v>
       </c>
-      <c r="I10" t="s" s="19">
+      <c r="J10" t="s" s="17">
+        <v>22</v>
+      </c>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" t="s" s="22">
         <v>42</v>
       </c>
-      <c r="J10" t="s" s="18">
-        <v>22</v>
-      </c>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" t="s" s="23">
+      <c r="D11" s="23">
+        <v>6</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="22">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="22">
         <v>43</v>
       </c>
-      <c r="D11" s="24">
-        <v>6</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="I11" t="s" s="22">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" t="s" s="25">
+        <v>42</v>
+      </c>
+      <c r="D12" s="26">
+        <v>7</v>
+      </c>
+      <c r="E12" s="26">
         <v>1</v>
       </c>
-      <c r="F11" t="s" s="23">
+      <c r="F12" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="23">
+      <c r="G12" t="s" s="25">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="25">
+        <v>46</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" t="s" s="25">
+        <v>42</v>
+      </c>
+      <c r="D13" s="26">
+        <v>7</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s" s="25">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="25">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="23">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s" s="23">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s" s="23">
+      <c r="H13" t="s" s="25">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s" s="25">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" t="s" s="26">
-        <v>43</v>
-      </c>
-      <c r="D12" s="27">
-        <v>7</v>
-      </c>
-      <c r="E12" s="27">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s" s="26">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s" s="26">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s" s="26">
-        <v>47</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" t="s" s="26">
-        <v>43</v>
-      </c>
-      <c r="D13" s="27">
-        <v>7</v>
-      </c>
-      <c r="E13" s="27">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s" s="26">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s" s="26">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s" s="26">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s" s="26">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D14" s="29">
+        <v>42</v>
+      </c>
+      <c r="D14" s="28">
         <v>8</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>1</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" t="s" s="23">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" t="s" s="22">
+        <v>51</v>
+      </c>
+      <c r="D15" s="23">
+        <v>9</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="22">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="22">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s" s="22">
         <v>52</v>
       </c>
-      <c r="D15" s="24">
-        <v>9</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s" s="23">
+      <c r="I15" s="21"/>
+      <c r="J15" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" t="s" s="25">
+        <v>51</v>
+      </c>
+      <c r="D16" s="26">
+        <v>10</v>
+      </c>
+      <c r="E16" s="26">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s" s="25">
         <v>53</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" t="s" s="23">
-        <v>18</v>
-      </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" t="s" s="26">
-        <v>52</v>
-      </c>
-      <c r="D16" s="27">
+      <c r="H16" t="s" s="25">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s" s="25">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D17" s="28">
         <v>10</v>
       </c>
-      <c r="E16" s="27">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s" s="26">
-        <v>55</v>
-      </c>
-      <c r="I16" t="s" s="26">
-        <v>56</v>
-      </c>
-      <c r="J16" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D17" s="29">
-        <v>10</v>
-      </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>2</v>
       </c>
       <c r="F17" t="s" s="2">
@@ -2142,591 +2145,591 @@
         <v>23</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" t="s" s="23">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" t="s" s="22">
+        <v>58</v>
+      </c>
+      <c r="D18" s="23">
+        <v>11</v>
+      </c>
+      <c r="E18" s="23">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s" s="22">
         <v>59</v>
       </c>
-      <c r="D18" s="24">
+      <c r="G18" t="s" s="22">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s" s="22">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s" s="22">
+        <v>61</v>
+      </c>
+      <c r="J18" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" t="s" s="25">
+        <v>58</v>
+      </c>
+      <c r="D19" s="26">
         <v>11</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E19" s="26">
         <v>3</v>
       </c>
-      <c r="F18" t="s" s="23">
-        <v>60</v>
-      </c>
-      <c r="G18" t="s" s="23">
-        <v>61</v>
-      </c>
-      <c r="H18" t="s" s="23">
-        <v>61</v>
-      </c>
-      <c r="I18" t="s" s="23">
+      <c r="F19" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s" s="25">
         <v>62</v>
       </c>
-      <c r="J18" t="s" s="23">
+      <c r="H19" t="s" s="25">
+        <v>63</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" t="s" s="26">
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D20" s="28">
+        <v>11</v>
+      </c>
+      <c r="E20" s="28">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D19" s="27">
-        <v>11</v>
-      </c>
-      <c r="E19" s="27">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="G19" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s" s="26">
+      <c r="G20" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D20" s="29">
-        <v>11</v>
-      </c>
-      <c r="E20" s="29">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s" s="2">
+      <c r="H20" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="I20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" ht="39.55" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" t="s" s="23">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" t="s" s="22">
+        <v>66</v>
+      </c>
+      <c r="D21" s="23">
+        <v>12</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s" s="22">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s" s="22">
         <v>67</v>
       </c>
-      <c r="D21" s="24">
+      <c r="I21" t="s" s="29">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" t="s" s="25">
+        <v>66</v>
+      </c>
+      <c r="D22" s="26">
         <v>12</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E22" s="26">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s" s="25">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s" s="25">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s" s="25">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" ht="26.55" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" t="s" s="25">
+        <v>71</v>
+      </c>
+      <c r="D23" s="26">
+        <v>13</v>
+      </c>
+      <c r="E23" s="26">
         <v>1</v>
       </c>
-      <c r="F21" t="s" s="23">
+      <c r="F23" t="s" s="25">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s" s="25">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="25">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s" s="30">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" t="s" s="25">
+        <v>71</v>
+      </c>
+      <c r="D24" s="26">
+        <v>13</v>
+      </c>
+      <c r="E24" s="26">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s" s="25">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s" s="25">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s" s="25">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s" s="25">
+        <v>61</v>
+      </c>
+      <c r="J24" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" t="s" s="25">
+        <v>74</v>
+      </c>
+      <c r="D25" s="26">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s" s="23">
-        <v>68</v>
-      </c>
-      <c r="I21" t="s" s="30">
-        <v>69</v>
-      </c>
-      <c r="J21" t="s" s="23">
+      <c r="E25" s="26">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s" s="25">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s" s="25">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s" s="25">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s" s="25">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="D22" s="27">
-        <v>12</v>
-      </c>
-      <c r="E22" s="27">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="G22" t="s" s="26">
-        <v>65</v>
-      </c>
-      <c r="H22" t="s" s="26">
-        <v>70</v>
-      </c>
-      <c r="I22" t="s" s="26">
-        <v>71</v>
-      </c>
-      <c r="J22" t="s" s="26">
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" t="s" s="25">
+        <v>74</v>
+      </c>
+      <c r="D26" s="26">
+        <v>14</v>
+      </c>
+      <c r="E26" s="26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s" s="25">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s" s="25">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="25">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="25">
+        <v>79</v>
+      </c>
+      <c r="J26" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" ht="26.55" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" t="s" s="26">
-        <v>72</v>
-      </c>
-      <c r="D23" s="27">
-        <v>13</v>
-      </c>
-      <c r="E23" s="27">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s" s="31">
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" ht="26.55" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="J23" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" t="s" s="26">
-        <v>72</v>
-      </c>
-      <c r="D24" s="27">
-        <v>13</v>
-      </c>
-      <c r="E24" s="27">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="G24" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="H24" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="I24" t="s" s="26">
-        <v>62</v>
-      </c>
-      <c r="J24" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" t="s" s="26">
+      <c r="D27" s="28">
+        <v>14</v>
+      </c>
+      <c r="E27" s="28">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D25" s="27">
-        <v>14</v>
-      </c>
-      <c r="E25" s="27">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s" s="26">
-        <v>76</v>
-      </c>
-      <c r="G25" t="s" s="26">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="26">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s" s="26">
-        <v>78</v>
-      </c>
-      <c r="J25" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" t="s" s="26">
-        <v>75</v>
-      </c>
-      <c r="D26" s="27">
-        <v>14</v>
-      </c>
-      <c r="E26" s="27">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s" s="26">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s" s="26">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="26">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="26">
+      <c r="G27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="J26" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" ht="26.55" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D27" s="29">
-        <v>14</v>
-      </c>
-      <c r="E27" s="29">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G27" t="s" s="2">
+      <c r="H27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="I27" t="s" s="31">
         <v>82</v>
-      </c>
-      <c r="I27" t="s" s="32">
-        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" ht="26.55" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" t="s" s="23">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" t="s" s="22">
+        <v>83</v>
+      </c>
+      <c r="D28" s="23">
+        <v>15</v>
+      </c>
+      <c r="E28" s="23">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s" s="22">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s" s="22">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s" s="22">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s" s="29">
         <v>84</v>
       </c>
-      <c r="D28" s="24">
+      <c r="J28" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" ht="26.55" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" t="s" s="25">
+        <v>83</v>
+      </c>
+      <c r="D29" s="26">
         <v>15</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E29" s="26">
         <v>3</v>
       </c>
-      <c r="F28" t="s" s="23">
+      <c r="F29" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s" s="25">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s" s="25">
+        <v>85</v>
+      </c>
+      <c r="I29" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="J29" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" ht="26.55" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" t="s" s="25">
+        <v>83</v>
+      </c>
+      <c r="D30" s="26">
+        <v>16</v>
+      </c>
+      <c r="E30" s="26">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s" s="25">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s" s="25">
+        <v>87</v>
+      </c>
+      <c r="I30" t="s" s="30">
+        <v>88</v>
+      </c>
+      <c r="J30" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" t="s" s="25">
+        <v>83</v>
+      </c>
+      <c r="D31" s="26">
+        <v>16</v>
+      </c>
+      <c r="E31" s="26">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s" s="25">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" ht="26.55" customHeight="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" t="s" s="25">
+        <v>90</v>
+      </c>
+      <c r="D32" s="26">
+        <v>16</v>
+      </c>
+      <c r="E32" s="26">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s" s="25">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s" s="25">
         <v>60</v>
       </c>
-      <c r="G28" t="s" s="23">
-        <v>61</v>
-      </c>
-      <c r="H28" t="s" s="23">
-        <v>61</v>
-      </c>
-      <c r="I28" t="s" s="30">
-        <v>85</v>
-      </c>
-      <c r="J28" t="s" s="23">
+      <c r="H32" t="s" s="25">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s" s="30">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" ht="26.55" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" t="s" s="26">
-        <v>84</v>
-      </c>
-      <c r="D29" s="27">
-        <v>15</v>
-      </c>
-      <c r="E29" s="27">
+      <c r="K32" s="24"/>
+    </row>
+    <row r="33" ht="26.55" customHeight="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" t="s" s="25">
+        <v>83</v>
+      </c>
+      <c r="D33" s="26">
+        <v>16</v>
+      </c>
+      <c r="E33" s="26">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s" s="25">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s" s="25">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s" s="25">
+        <v>91</v>
+      </c>
+      <c r="I33" t="s" s="30">
+        <v>86</v>
+      </c>
+      <c r="J33" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" t="s" s="25">
+        <v>92</v>
+      </c>
+      <c r="D34" s="26">
+        <v>17</v>
+      </c>
+      <c r="E34" s="26">
         <v>3</v>
       </c>
-      <c r="F29" t="s" s="26">
+      <c r="F34" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="G34" t="s" s="25">
         <v>60</v>
       </c>
-      <c r="G29" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s" s="26">
-        <v>86</v>
-      </c>
-      <c r="I29" t="s" s="31">
-        <v>87</v>
-      </c>
-      <c r="J29" t="s" s="26">
+      <c r="H34" t="s" s="25">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s" s="25">
+        <v>93</v>
+      </c>
+      <c r="J34" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" ht="26.55" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" t="s" s="26">
-        <v>84</v>
-      </c>
-      <c r="D30" s="27">
-        <v>16</v>
-      </c>
-      <c r="E30" s="27">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s" s="26">
+      <c r="K34" s="24"/>
+    </row>
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" t="s" s="25">
+        <v>92</v>
+      </c>
+      <c r="D35" s="26">
+        <v>17</v>
+      </c>
+      <c r="E35" s="26">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s" s="25">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s" s="25">
+        <v>94</v>
+      </c>
+      <c r="I35" t="s" s="25">
+        <v>95</v>
+      </c>
+      <c r="J35" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" ht="13.55" customHeight="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" t="s" s="25">
+        <v>96</v>
+      </c>
+      <c r="D36" s="26">
+        <v>18</v>
+      </c>
+      <c r="E36" s="26">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s" s="25">
+        <v>72</v>
+      </c>
+      <c r="G36" t="s" s="25">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s" s="25">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s" s="25">
+        <v>93</v>
+      </c>
+      <c r="J36" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="K36" s="24"/>
+    </row>
+    <row r="37" ht="13.55" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" t="s" s="25">
+        <v>96</v>
+      </c>
+      <c r="D37" s="26">
         <v>19</v>
       </c>
-      <c r="G30" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s" s="26">
-        <v>88</v>
-      </c>
-      <c r="I30" t="s" s="31">
-        <v>89</v>
-      </c>
-      <c r="J30" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" t="s" s="26">
-        <v>84</v>
-      </c>
-      <c r="D31" s="27">
-        <v>16</v>
-      </c>
-      <c r="E31" s="27">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s" s="26">
-        <v>41</v>
-      </c>
-      <c r="I31" t="s" s="26">
-        <v>90</v>
-      </c>
-      <c r="J31" t="s" s="26">
-        <v>22</v>
-      </c>
-      <c r="K31" s="25"/>
-    </row>
-    <row r="32" ht="26.55" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" t="s" s="26">
-        <v>91</v>
-      </c>
-      <c r="D32" s="27">
-        <v>16</v>
-      </c>
-      <c r="E32" s="27">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="G32" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="H32" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="I32" t="s" s="31">
-        <v>85</v>
-      </c>
-      <c r="J32" t="s" s="26">
+      <c r="E37" s="26">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s" s="25">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s" s="25">
+        <v>97</v>
+      </c>
+      <c r="I37" t="s" s="25">
+        <v>98</v>
+      </c>
+      <c r="J37" t="s" s="25">
         <v>18</v>
       </c>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" ht="26.55" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" t="s" s="26">
-        <v>84</v>
-      </c>
-      <c r="D33" s="27">
-        <v>16</v>
-      </c>
-      <c r="E33" s="27">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s" s="26">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s" s="26">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s" s="26">
-        <v>92</v>
-      </c>
-      <c r="I33" t="s" s="31">
-        <v>87</v>
-      </c>
-      <c r="J33" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K33" s="25"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" t="s" s="26">
-        <v>93</v>
-      </c>
-      <c r="D34" s="27">
-        <v>17</v>
-      </c>
-      <c r="E34" s="27">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="G34" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="H34" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="I34" t="s" s="26">
-        <v>94</v>
-      </c>
-      <c r="J34" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" t="s" s="26">
-        <v>93</v>
-      </c>
-      <c r="D35" s="27">
-        <v>17</v>
-      </c>
-      <c r="E35" s="27">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="G35" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="H35" t="s" s="26">
-        <v>95</v>
-      </c>
-      <c r="I35" t="s" s="26">
-        <v>96</v>
-      </c>
-      <c r="J35" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" t="s" s="26">
-        <v>97</v>
-      </c>
-      <c r="D36" s="27">
-        <v>18</v>
-      </c>
-      <c r="E36" s="27">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s" s="26">
-        <v>73</v>
-      </c>
-      <c r="G36" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="H36" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="I36" t="s" s="26">
-        <v>94</v>
-      </c>
-      <c r="J36" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" t="s" s="26">
-        <v>97</v>
-      </c>
-      <c r="D37" s="27">
-        <v>19</v>
-      </c>
-      <c r="E37" s="27">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s" s="26">
-        <v>60</v>
-      </c>
-      <c r="G37" t="s" s="26">
-        <v>63</v>
-      </c>
-      <c r="H37" t="s" s="26">
-        <v>98</v>
-      </c>
-      <c r="I37" t="s" s="26">
-        <v>99</v>
-      </c>
-      <c r="J37" t="s" s="26">
-        <v>18</v>
-      </c>
-      <c r="K37" s="25"/>
+      <c r="K37" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
